--- a/biology/Zoologie/Cephalotes_crenaticeps/Cephalotes_crenaticeps.xlsx
+++ b/biology/Zoologie/Cephalotes_crenaticeps/Cephalotes_crenaticeps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes crenaticeps est une espèce de fourmis arboricoles du genre Cephalotes[1][2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes crenaticeps est une espèce de fourmis arboricoles du genre Cephalotes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est trouvée dans une géographie spécifique du Nord de l'Amérique du Sud, au Venezuela et en Colombie[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est trouvée dans une géographie spécifique du Nord de l'Amérique du Sud, au Venezuela et en Colombie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[4]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 Elle fut décrite et classifiée pour la première fois par l'entomologiste autrichien Gustav Mayr en 1866.
 </t>
         </is>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
